--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -647,13 +647,10 @@
 </t>
   </si>
   <si>
-    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
+    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie (Synonyme : secteurConventionnement).</t>
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire le secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
-  </si>
-  <si>
-    <t>Synonyme : secteurConventionnement</t>
   </si>
   <si>
     <t>PractitionerRole.extension:as-ext-practitionerrole-hascas</t>
@@ -1385,193 +1382,6 @@
     <t>TEL</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType</t>
-  </si>
-  <si>
-    <t>emailType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrContactPointEmailType}
-</t>
-  </si>
-  <si>
-    <t>Type of email | type de messagerie électronique</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t>as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
-</t>
-  </si>
-  <si>
-    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
-  </si>
-  <si>
-    <t>Extension contenant les métadonnées de la mailbox mss.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.system</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t>ele-1
-cpt-2</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.value</t>
-  </si>
-  <si>
-    <t>Boîte Aux Lettres (BAL) MSS</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.rank</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
@@ -1621,6 +1431,9 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>The days of the week.</t>
@@ -2049,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2058,7 +1871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.05859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.21484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="36.3984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4191,9 +4004,7 @@
       <c r="M19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4271,13 +4082,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4299,13 +4110,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4385,13 +4196,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4413,13 +4224,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4499,10 +4310,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4528,16 +4339,16 @@
         <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4586,7 +4397,7 @@
         <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4615,10 +4426,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4641,17 +4452,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4688,10 +4499,10 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
@@ -4700,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4715,27 +4526,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
@@ -4757,17 +4568,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4816,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4831,24 +4642,24 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4957,10 +4768,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5071,10 +4882,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5100,16 +4911,16 @@
         <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5134,31 +4945,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5176,7 +4987,7 @@
         <v>102</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5187,10 +4998,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5213,19 +5024,19 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5253,28 +5064,28 @@
         <v>153</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5289,10 +5100,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5303,10 +5114,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5332,16 +5143,16 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5351,46 +5162,46 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="T29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="T29" t="s" s="2">
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5405,13 +5216,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5419,10 +5230,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5448,13 +5259,13 @@
         <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5468,43 +5279,43 @@
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5519,13 +5330,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5533,10 +5344,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5559,16 +5370,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5618,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5630,16 +5441,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5647,10 +5458,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5673,16 +5484,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5732,7 +5543,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5744,16 +5555,16 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5761,13 +5572,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5789,17 +5600,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5848,7 +5659,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5863,24 +5674,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5989,10 +5800,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6103,10 +5914,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6132,16 +5943,16 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6166,31 +5977,31 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6208,7 +6019,7 @@
         <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6219,10 +6030,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6245,19 +6056,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6285,28 +6096,28 @@
         <v>153</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6321,10 +6132,10 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6335,10 +6146,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6364,16 +6175,16 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6383,46 +6194,46 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6437,13 +6248,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6451,10 +6262,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6480,13 +6291,13 @@
         <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6500,43 +6311,43 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6551,13 +6362,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6565,10 +6376,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6591,16 +6402,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6650,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6662,16 +6473,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6679,10 +6490,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6705,16 +6516,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6764,7 +6575,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6776,16 +6587,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6793,10 +6604,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6819,26 +6630,26 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="O42" t="s" s="2">
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="R42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6882,7 +6693,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6897,24 +6708,24 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6937,19 +6748,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6998,7 +6809,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7010,27 +6821,27 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7139,10 +6950,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7253,10 +7064,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7279,16 +7090,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7338,7 +7149,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7347,16 +7158,16 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7367,10 +7178,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7393,68 +7204,68 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7463,16 +7274,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7483,10 +7294,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7509,16 +7320,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7568,7 +7379,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7580,13 +7391,13 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7597,10 +7408,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7623,16 +7434,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7682,7 +7493,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7505,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7711,10 +7522,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7737,19 +7548,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7777,16 +7588,16 @@
         <v>163</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -7796,7 +7607,7 @@
         <v>117</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7811,13 +7622,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7825,13 +7636,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -7853,19 +7664,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7890,11 +7701,11 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7912,7 +7723,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7927,13 +7738,13 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7941,13 +7752,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
@@ -7969,19 +7780,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8006,11 +7817,11 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -8028,7 +7839,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8043,13 +7854,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8057,13 +7868,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -8085,19 +7896,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8122,11 +7933,11 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8144,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8159,13 +7970,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8173,13 +7984,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
@@ -8201,19 +8012,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8238,11 +8049,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8260,7 +8071,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8275,13 +8086,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8289,13 +8100,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8317,19 +8128,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8354,11 +8165,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8376,7 +8187,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8391,13 +8202,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8405,13 +8216,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8433,19 +8244,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8470,11 +8281,11 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8492,7 +8303,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8507,13 +8318,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8521,13 +8332,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
@@ -8549,19 +8360,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8586,11 +8397,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8608,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8623,13 +8434,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8637,10 +8448,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8651,7 +8462,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8663,16 +8474,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8701,11 +8512,11 @@
         <v>177</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8722,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8737,13 +8548,13 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8751,10 +8562,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8777,16 +8588,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8836,7 +8647,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8848,27 +8659,27 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8891,16 +8702,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8950,7 +8761,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8962,13 +8773,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8979,10 +8790,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9005,17 +8816,17 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9052,7 +8863,7 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
@@ -9062,7 +8873,7 @@
         <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9074,16 +8885,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9091,13 +8902,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
@@ -9119,17 +8930,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9178,7 +8989,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9190,16 +9001,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AL62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9207,10 +9018,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9221,10 +9032,10 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>77</v>
@@ -9233,15 +9044,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9290,25 +9103,25 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>108</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9319,21 +9132,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9345,17 +9158,15 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9392,37 +9203,37 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9433,14 +9244,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>110</v>
       </c>
@@ -9449,7 +9258,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9461,13 +9270,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>446</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>447</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>448</v>
+        <v>113</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>114</v>
@@ -9508,16 +9317,16 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>118</v>
@@ -9549,44 +9358,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9634,7 +9445,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9652,7 +9463,7 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9663,10 +9474,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9674,10 +9485,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9686,19 +9497,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9709,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>77</v>
@@ -9724,13 +9535,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9748,28 +9559,28 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>463</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9777,10 +9588,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9788,35 +9599,31 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9864,7 +9671,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9879,13 +9686,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9893,10 +9700,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9913,26 +9720,24 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9956,13 +9761,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9980,7 +9785,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9995,13 +9800,13 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10009,10 +9814,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10032,19 +9837,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10094,7 +9899,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10109,10 +9914,10 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>108</v>
+        <v>444</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10123,10 +9928,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10137,29 +9942,27 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>284</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10208,28 +10011,28 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10237,10 +10040,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10251,10 +10054,10 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>77</v>
@@ -10263,17 +10066,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10322,25 +10123,25 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>501</v>
+        <v>107</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>506</v>
+        <v>108</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10351,21 +10152,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10377,15 +10178,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10422,37 +10225,37 @@
         <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10463,14 +10266,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10483,24 +10286,26 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>112</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>113</v>
+        <v>450</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10536,19 +10341,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>118</v>
+        <v>451</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10577,46 +10382,44 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10664,25 +10467,25 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10693,10 +10496,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10707,7 +10510,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10719,16 +10522,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>458</v>
+        <v>286</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10754,13 +10557,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>517</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10778,25 +10581,25 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>288</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10807,10 +10610,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10821,10 +10624,10 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10833,15 +10636,17 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10890,7 +10695,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10908,7 +10713,7 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10919,10 +10724,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10933,10 +10738,10 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
@@ -10945,18 +10750,20 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11004,1061 +10811,35 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12068,7 +10849,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -401,7 +401,7 @@
     <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
   </si>
   <si>
     <t>PractitionerRole.meta.versionId</t>
@@ -461,6 +461,9 @@
     <t>PractitionerRole.meta.profile</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
@@ -490,7 +493,13 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role-exercice</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.profile:as-dr-canonical</t>
+  </si>
+  <si>
+    <t>as-dr-canonical</t>
   </si>
   <si>
     <t>PractitionerRole.meta.security</t>
@@ -752,11 +761,11 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -865,11 +874,10 @@
     <t>PractitionerRole.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value | Namespace du RASS)</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.
-Namespace du RASS)</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -878,7 +886,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://rpps.fr</t>
+    <t>https://rpps.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -994,7 +1002,7 @@
     <t>[Donnée restreinte] : Identifiant d’activité propre à l’Assurance Maladie. format: 9 digits. synonyme: numeroAM</t>
   </si>
   <si>
-    <t>numeroAM</t>
+    <t>SituationExercice.numeroAM</t>
   </si>
   <si>
     <t>PractitionerRole.identifier:numeroAm.id</t>
@@ -1012,7 +1020,7 @@
     <t>PractitionerRole.identifier:numeroAm.system</t>
   </si>
   <si>
-    <t>http://ameli.fr</t>
+    <t>https://www.ameli.fr</t>
   </si>
   <si>
     <t>PractitionerRole.identifier:numeroAm.value</t>
@@ -1105,11 +1113,11 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
-    <t>dateDebutActivite</t>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>SituationExercice.dateDebutActivite</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1136,7 +1144,7 @@
     <t>Period.end</t>
   </si>
   <si>
-    <t>dateFinActivite</t>
+    <t>SituationExercice.dateFinActivite</t>
   </si>
   <si>
     <t>DR.2</t>
@@ -1195,10 +1203,6 @@
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
   </si>
   <si>
@@ -1217,6 +1221,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J94-GenreActivite-RASS/FHIR/JDV-J94-GenreActivite-RASS</t>
   </si>
   <si>
+    <t>SituationExercice.genreActivite</t>
+  </si>
+  <si>
     <t>PractitionerRole.code:modeExercice</t>
   </si>
   <si>
@@ -1229,6 +1236,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J95-ModeExercice-RASS/FHIR/JDV-J95-ModeExercice-RASS</t>
   </si>
   <si>
+    <t>SituationExercice.modeExercice</t>
+  </si>
+  <si>
     <t>PractitionerRole.code:typeActiviteLiberale</t>
   </si>
   <si>
@@ -1241,6 +1251,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J96-TypeActiviteLiberale-RASS/FHIR/JDV-J96-TypeActiviteLiberale-RASS</t>
   </si>
   <si>
+    <t>SituationExercice.typeActiviteLiberale</t>
+  </si>
+  <si>
     <t>PractitionerRole.code:statutProfessionnelSSA</t>
   </si>
   <si>
@@ -1253,7 +1266,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J97-StatutProfessionnelSSA-RASS/FHIR/JDV-J97-StatutProfessionnelSSA-RASS</t>
   </si>
   <si>
-    <t>statutPS_SSA</t>
+    <t>SituationExercice.statutPS_SSA</t>
   </si>
   <si>
     <t>PractitionerRole.code:statutHospitalier</t>
@@ -1268,6 +1281,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J98-StatutHospitalier-RASS/FHIR/JDV-J98-StatutHospitalier-RASS</t>
   </si>
   <si>
+    <t>SituationExercice.statutHospitalier</t>
+  </si>
+  <si>
     <t>PractitionerRole.code:fonction</t>
   </si>
   <si>
@@ -1280,7 +1296,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J108-EnsembleFonction-RASS/FHIR/JDV-J108-EnsembleFonction-RASS</t>
   </si>
   <si>
-    <t>role</t>
+    <t>SituationExercice.role</t>
   </si>
   <si>
     <t>PractitionerRole.code:metierPharmacien</t>
@@ -1293,6 +1309,9 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J73-MetierPharmacien-RASS/FHIR/JDV-J73-MetierPharmacien-RASS</t>
+  </si>
+  <si>
+    <t>SituationExercice.metierPharmacien</t>
   </si>
   <si>
     <t>PractitionerRole.specialty</t>
@@ -1373,15 +1392,15 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>value:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
-    <t>telecommunication</t>
+    <t>SituationExercice.telecommunication</t>
   </si>
   <si>
     <t>XTN</t>
@@ -1391,6 +1410,159 @@
   </si>
   <si>
     <t>ContactPoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension:emailType</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
+</t>
+  </si>
+  <si>
+    <t>Type of email | type de messagerie électronique</t>
+  </si>
+  <si>
+    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.canal</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.adresseTelecom</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.utilisation</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss</t>
@@ -1406,7 +1578,7 @@
     <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
   </si>
   <si>
-    <t>boiteLettresMSS</t>
+    <t>SituationExercice.boiteLettresMSS</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1880,7 +2052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,7 +2088,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="105.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3116,7 +3288,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3131,16 +3303,16 @@
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3178,10 +3350,10 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>78</v>
@@ -3190,7 +3362,7 @@
         <v>117</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3222,20 +3394,20 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
@@ -3250,16 +3422,16 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3270,7 +3442,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -3309,7 +3481,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3341,21 +3513,23 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3367,16 +3541,16 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3387,7 +3561,7 @@
         <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>78</v>
@@ -3402,13 +3576,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3426,7 +3600,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3458,10 +3632,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3484,16 +3658,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3519,13 +3693,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3717,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3575,10 +3749,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3589,28 +3763,28 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3636,13 +3810,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3660,13 +3834,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3692,10 +3866,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3712,22 +3886,22 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3753,13 +3927,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3777,7 +3951,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3809,14 +3983,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3835,16 +4009,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3870,13 +4044,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3894,7 +4068,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3915,7 +4089,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3926,21 +4100,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3952,16 +4126,16 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4011,19 +4185,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4032,7 +4206,7 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4043,14 +4217,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4069,15 +4243,17 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4114,17 +4290,19 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4136,7 +4314,7 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4145,7 +4323,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4156,14 +4334,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4184,13 +4360,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4229,19 +4405,17 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4250,7 +4424,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>119</v>
@@ -4273,13 +4447,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4289,10 +4463,10 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4301,13 +4475,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4358,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4367,7 +4541,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>119</v>
@@ -4390,13 +4564,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4418,13 +4592,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4475,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4507,13 +4681,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4535,13 +4709,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4592,7 +4766,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4624,33 +4798,35 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>226</v>
@@ -4658,12 +4834,8 @@
       <c r="M24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4711,7 +4883,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4732,7 +4904,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4743,14 +4915,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4760,26 +4932,28 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4816,19 +4990,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4840,34 +5014,32 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4876,10 +5048,10 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4888,17 +5060,17 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4935,19 +5107,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4965,16 +5137,16 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4982,9 +5154,11 @@
         <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5002,19 +5176,21 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5062,53 +5238,53 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5120,17 +5296,15 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5167,31 +5341,31 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5211,46 +5385,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5274,52 +5446,52 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5330,10 +5502,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5350,25 +5522,25 @@
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5393,13 +5565,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5435,10 +5607,10 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5449,10 +5621,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5460,7 +5632,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5475,19 +5647,19 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5497,10 +5669,10 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>78</v>
@@ -5512,13 +5684,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5536,7 +5708,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5554,13 +5726,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5568,10 +5740,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5579,7 +5751,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5594,18 +5766,20 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5614,10 +5788,10 @@
         <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5653,7 +5827,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5671,13 +5845,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5685,10 +5859,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5711,15 +5885,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5732,7 +5908,7 @@
         <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>78</v>
@@ -5768,7 +5944,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5786,13 +5962,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5800,10 +5976,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5826,17 +6002,15 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5885,7 +6059,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5903,13 +6077,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -5917,14 +6091,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5945,18 +6117,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6004,13 +6176,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6019,29 +6191,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6059,19 +6233,21 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6119,53 +6295,53 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6177,17 +6353,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6224,31 +6398,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6268,46 +6442,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6331,52 +6503,52 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6387,10 +6559,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6407,25 +6579,25 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6450,13 +6622,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6474,7 +6646,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6492,10 +6664,10 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6506,10 +6678,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6517,7 +6689,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -6532,19 +6704,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6554,10 +6726,10 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6569,13 +6741,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6593,7 +6765,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6611,13 +6783,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6625,10 +6797,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6636,7 +6808,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -6651,18 +6823,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6671,10 +6845,10 @@
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6710,7 +6884,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6728,13 +6902,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6742,10 +6916,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6768,15 +6942,17 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6789,7 +6965,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6825,7 +7001,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6843,13 +7019,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6857,10 +7033,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6883,17 +7059,15 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6942,7 +7116,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6960,13 +7134,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6974,10 +7148,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6991,7 +7165,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
@@ -7000,26 +7174,22 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7063,7 +7233,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7081,24 +7251,24 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7121,22 +7291,26 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7180,7 +7354,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7198,24 +7372,24 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7229,25 +7403,27 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7295,7 +7471,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7307,41 +7483,41 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7353,17 +7529,15 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7400,31 +7574,31 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7433,7 +7607,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7444,21 +7618,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7467,19 +7641,19 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
+        <v>113</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7517,40 +7691,40 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>118</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7561,10 +7735,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7587,24 +7761,22 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7648,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7657,19 +7829,19 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7680,10 +7852,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7691,13 +7863,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -7706,20 +7878,24 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7763,7 +7939,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7772,19 +7948,19 @@
         <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7795,10 +7971,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7806,7 +7982,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
@@ -7821,13 +7997,13 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7878,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7899,7 +8075,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7910,10 +8086,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7924,10 +8100,10 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -7936,20 +8112,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7973,33 +8145,37 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8011,13 +8187,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8025,14 +8201,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8041,10 +8215,10 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8053,19 +8227,19 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8090,29 +8264,27 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8127,16 +8299,16 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8144,13 +8316,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8172,19 +8344,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8209,11 +8381,11 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8231,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8246,16 +8418,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8263,13 +8435,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8291,19 +8463,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8328,11 +8500,11 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8350,7 +8522,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8365,16 +8537,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8385,7 +8557,7 @@
         <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>395</v>
@@ -8410,19 +8582,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8447,7 +8619,7 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
@@ -8469,7 +8641,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8487,13 +8659,13 @@
         <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8676,7 @@
         <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>400</v>
@@ -8529,19 +8701,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8566,7 +8738,7 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
@@ -8588,7 +8760,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8603,16 +8775,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8620,13 +8792,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -8648,19 +8820,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8685,11 +8857,11 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8707,7 +8879,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8722,16 +8894,16 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8739,13 +8911,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -8755,7 +8927,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>91</v>
@@ -8767,19 +8939,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8804,11 +8976,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8826,7 +8998,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8841,16 +9013,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8858,12 +9030,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8872,10 +9046,10 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
@@ -8884,16 +9058,20 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8917,11 +9095,11 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8939,7 +9117,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8954,16 +9132,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8985,10 +9163,10 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>78</v>
@@ -8997,13 +9175,13 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9030,13 +9208,11 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9072,16 +9248,16 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -9100,7 +9276,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>91</v>
@@ -9109,7 +9285,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>427</v>
@@ -9187,24 +9363,24 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO62" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9215,7 +9391,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>91</v>
@@ -9227,18 +9403,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9274,17 +9448,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9293,22 +9469,22 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9316,14 +9492,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9335,7 +9509,7 @@
         <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9344,17 +9518,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9391,19 +9565,17 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9412,22 +9584,22 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AM64" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9435,10 +9607,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9449,10 +9621,10 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
@@ -9461,17 +9633,15 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9520,19 +9690,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9541,7 +9711,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9552,21 +9722,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9578,15 +9748,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9623,31 +9795,31 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9667,21 +9839,23 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9693,17 +9867,15 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>111</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9773,7 +9945,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9784,33 +9956,33 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>458</v>
@@ -9818,12 +9990,8 @@
       <c r="M68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9847,13 +10015,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9871,31 +10039,31 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>199</v>
+        <v>466</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -9903,10 +10071,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9914,10 +10082,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9926,19 +10094,23 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9962,13 +10134,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9986,13 +10158,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -10001,16 +10173,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10018,10 +10190,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10038,22 +10210,26 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10077,13 +10253,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10101,7 +10277,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10116,16 +10292,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10133,10 +10309,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10156,19 +10332,19 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10218,7 +10394,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10236,10 +10412,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10250,10 +10426,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10273,20 +10449,18 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>297</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10335,7 +10509,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10353,13 +10527,13 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -10367,12 +10541,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10381,10 +10557,10 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>78</v>
@@ -10393,16 +10569,18 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10450,7 +10628,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10459,22 +10637,22 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>445</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -10482,10 +10660,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10496,10 +10674,10 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>78</v>
@@ -10508,15 +10686,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>105</v>
+        <v>507</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10565,19 +10745,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10586,7 +10766,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10597,21 +10777,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10623,17 +10803,15 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10682,19 +10860,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10714,14 +10892,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10734,26 +10912,24 @@
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>112</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>459</v>
+        <v>113</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O76" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10801,7 +10977,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>460</v>
+        <v>118</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10822,7 +10998,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10833,42 +11009,46 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10916,19 +11096,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -10937,7 +11117,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10948,10 +11128,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10962,7 +11142,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10974,13 +11154,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11007,13 +11187,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>522</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11031,13 +11211,13 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
@@ -11052,7 +11232,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11063,10 +11243,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11077,10 +11257,10 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>78</v>
@@ -11089,13 +11269,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>328</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11146,7 +11326,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11167,7 +11347,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11178,10 +11358,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11192,10 +11372,10 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>78</v>
@@ -11204,18 +11384,18 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11263,13 +11443,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11284,17 +11464,1062 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO80" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11304,7 +12529,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
